--- a/fuentes/contenidos/grado08/guion01/SolicitudGrafica_LE_08_01_REC70.xlsx
+++ b/fuentes/contenidos/grado08/guion01/SolicitudGrafica_LE_08_01_REC70.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="Formato">'Solicitud gráfica'!$L$2:$L$3</definedName>
     <definedName name="Ubicación">'Solicitud gráfica'!$M$2:$M$6</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -2488,9 +2488,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -6664,7 +6664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>

--- a/fuentes/contenidos/grado08/guion01/SolicitudGrafica_LE_08_01_REC70.xlsx
+++ b/fuentes/contenidos/grado08/guion01/SolicitudGrafica_LE_08_01_REC70.xlsx
@@ -21,12 +21,12 @@
     <definedName name="Formato">'Solicitud gráfica'!$L$2:$L$3</definedName>
     <definedName name="Ubicación">'Solicitud gráfica'!$M$2:$M$6</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="203">
   <si>
     <t>Fecha:</t>
   </si>
@@ -2489,8 +2489,8 @@
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <pane ySplit="9" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3194,22 +3194,28 @@
     <row r="22" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B22" s="62"/>
+        <v>IMG13</v>
+      </c>
+      <c r="B22" s="62">
+        <v>31588516</v>
+      </c>
       <c r="C22" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D22" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E22" s="63" t="s">
+        <v>152</v>
+      </c>
       <c r="F22" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>LE_08_01_REC70_IMG13.jpg</v>
       </c>
       <c r="G22" s="13" t="str">
         <f ca="1">IF($F22&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E22,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>350 x 230 px</v>
       </c>
       <c r="H22" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
